--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -274,7 +274,7 @@
     <t>/wordoor_uaas_api/v1/busins/cloudClass/create</t>
   </si>
   <si>
-    <t>{"broadPeriod": 2,"classType": 2,"cover": "https://image1.gopopon.com/20201126161620cef6f25be85b98f8a3f1f31a7033bfe048991517","creatorOrgId": ${departmentId},"description": "日常接口测试","name": "API_TEST_2020_12_18","participateMajor": ${classid},"userId": ${userid}}</t>
+    <t>{"broadPeriod": 2,"classType": 2,"cover": "https://image1.gopopon.com/20201126161620cef6f25be85b98f8a3f1f31a7033bfe048991517","creatorOrgId": ${departmentId},"description": "日常接口测试","name": "API_TEST_日常接口测试","participateMajor": ${classid},"userId": ${userid}}</t>
   </si>
   <si>
     <t>api_case_12</t>
@@ -323,6 +323,66 @@
   </si>
   <si>
     <t xml:space="preserve"> {"id":${creUpGroupId},"userId": ${userid}}</t>
+  </si>
+  <si>
+    <t>api_case_15</t>
+  </si>
+  <si>
+    <t>云课堂列表接口测试</t>
+  </si>
+  <si>
+    <t>云课堂列表接口</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/busins/cloudClass/classList</t>
+  </si>
+  <si>
+    <t>{"classType": 2,"invited": 0,"learn": 0,"orgId": ${departmentId},"userId": ${userid},"ps": 1000,"pn":1}</t>
+  </si>
+  <si>
+    <t>api_case_16</t>
+  </si>
+  <si>
+    <t>云课堂创建课时接口测试</t>
+  </si>
+  <si>
+    <t>jsonpath取值,sta_time</t>
+  </si>
+  <si>
+    <t>$.result.items[0].id,100</t>
+  </si>
+  <si>
+    <t>classid,sta_time</t>
+  </si>
+  <si>
+    <t>云课堂创建课时接口</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/busins/cloudClass/createDirectRecords</t>
+  </si>
+  <si>
+    <t>{"classId":${classid},"duration":600,"title":"日常接口测试新建课时","batchStartStamp":${sta_time},"userId":${userid}}</t>
+  </si>
+  <si>
+    <t>api_case_17</t>
+  </si>
+  <si>
+    <t>删除云课堂接口测试</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>$.result.items[0].id</t>
+  </si>
+  <si>
+    <t>删除云课堂接口</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/busins/cloudClass/delete</t>
+  </si>
+  <si>
+    <t>{"id":${classid},"userId":${userid}}</t>
   </si>
 </sst>
 </file>
@@ -330,10 +390,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -358,6 +418,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -366,18 +441,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,24 +465,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,21 +488,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -443,9 +495,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,7 +519,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,8 +533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,13 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +581,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,37 +605,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,67 +635,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +677,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +764,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,7 +773,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +789,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,21 +835,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -793,142 +853,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,6 +1009,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -956,9 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,36 +1339,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="17.1071428571429" customWidth="1"/>
-    <col min="2" max="2" width="31.6964285714286" customWidth="1"/>
+    <col min="2" max="2" width="31.6964285714286" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.2767857142857" customWidth="1"/>
     <col min="4" max="4" width="13.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
-    <col min="6" max="6" width="15.4732142857143" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.4732142857143" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="41.9642857142857" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.2410714285714" style="3" customWidth="1"/>
     <col min="9" max="9" width="16.6607142857143" customWidth="1"/>
-    <col min="10" max="10" width="72.4642857142857" style="2" customWidth="1"/>
+    <col min="10" max="10" width="90.0178571428571" style="3" customWidth="1"/>
     <col min="11" max="11" width="27.6785714285714" customWidth="1"/>
     <col min="12" max="12" width="51.4821428571429" customWidth="1"/>
     <col min="13" max="13" width="14.7321428571429" customWidth="1"/>
     <col min="14" max="14" width="17.2589285714286" customWidth="1"/>
-    <col min="15" max="15" width="23.0625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.0625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1320,19 +1380,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1347,33 +1407,33 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
@@ -1382,35 +1442,35 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
@@ -1425,30 +1485,30 @@
       <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K4" t="s">
@@ -1463,33 +1523,33 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
@@ -1504,30 +1564,30 @@
       <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K6" t="s">
@@ -1542,62 +1602,62 @@
       <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
@@ -1612,30 +1672,30 @@
       <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K9" t="s">
@@ -1650,62 +1710,62 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K11" t="s">
@@ -1720,30 +1780,30 @@
       <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
@@ -1758,62 +1818,62 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K14" t="s">
@@ -1828,30 +1888,30 @@
       <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1866,62 +1926,62 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N16" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="F17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K17" t="s">
@@ -1936,30 +1996,30 @@
       <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
@@ -1974,62 +2034,62 @@
       <c r="N18" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N19" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="F20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K20" t="s">
@@ -2044,30 +2104,30 @@
       <c r="N20" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K21" t="s">
@@ -2082,62 +2142,62 @@
       <c r="N21" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N22" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K23" t="s">
@@ -2152,30 +2212,30 @@
       <c r="N23" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K24" t="s">
@@ -2190,30 +2250,30 @@
       <c r="N24" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="3" t="s">
         <v>75</v>
       </c>
       <c r="K25" t="s">
@@ -2228,33 +2288,33 @@
       <c r="N25" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="F26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K26" t="s">
@@ -2269,30 +2329,30 @@
       <c r="N26" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="3"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K27" t="s">
@@ -2307,62 +2367,62 @@
       <c r="N27" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="3"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N28" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="F29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K29" t="s">
@@ -2377,30 +2437,30 @@
       <c r="N29" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K30" t="s">
@@ -2415,30 +2475,30 @@
       <c r="N30" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E31" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="3" t="s">
         <v>75</v>
       </c>
       <c r="K31" t="s">
@@ -2453,62 +2513,62 @@
       <c r="N31" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E32" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N32" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="F33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K33" t="s">
@@ -2523,30 +2583,30 @@
       <c r="N33" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K34" t="s">
@@ -2561,65 +2621,62 @@
       <c r="N34" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
       <c r="N35" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="F36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K36" t="s">
@@ -2634,30 +2691,30 @@
       <c r="N36" t="s">
         <v>31</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E37" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K37" t="s">
@@ -2672,66 +2729,62 @@
       <c r="N37" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E38" t="s">
         <v>94</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
       <c r="N38" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" s="2" t="s">
+      <c r="F39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
@@ -2746,30 +2799,30 @@
       <c r="N39" t="s">
         <v>31</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K40" t="s">
@@ -2784,30 +2837,30 @@
       <c r="N40" t="s">
         <v>41</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>94</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="3" t="s">
         <v>96</v>
       </c>
       <c r="K41" t="s">
@@ -2822,41 +2875,441 @@
       <c r="N41" t="s">
         <v>41</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N42" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>29</v>
+      </c>
+      <c r="M43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" t="s">
+        <v>39</v>
+      </c>
+      <c r="M44" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N45" t="s">
+        <v>41</v>
+      </c>
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>29</v>
+      </c>
+      <c r="M46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M47" t="s">
+        <v>44</v>
+      </c>
+      <c r="N47" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K48" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" t="s">
+        <v>112</v>
+      </c>
+      <c r="N48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="N49" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" t="s">
+        <v>39</v>
+      </c>
+      <c r="M51" t="s">
+        <v>44</v>
+      </c>
+      <c r="N51" t="s">
+        <v>41</v>
+      </c>
+      <c r="O51" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K52" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" t="s">
+        <v>119</v>
+      </c>
+      <c r="M52" t="s">
+        <v>76</v>
+      </c>
+      <c r="N52" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" ht="18" spans="1:15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="3">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="48">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -2870,6 +3323,9 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -2883,6 +3339,9 @@
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -2896,10 +3355,13 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C53"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K1:K3 K43:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N1:N35 N36:N38 N39:N41 N43:N1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K1:K3 K53:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N49 N53 N1:N35 N36:N38 N39:N41 N43:N45 N46:N48 N50:N52 N54:N1048576">
       <formula1>"none,response_code,code_check,header_key,header_key_value,body_regexp,json_key_value,json_key"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -121,7 +121,7 @@
     <t>机构列表接口</t>
   </si>
   <si>
-    <t>{"A-Token-Header": ${token}}</t>
+    <t>{"A-Token-Header": "${token}"}</t>
   </si>
   <si>
     <t>/wordoor_uaas_api/v1/busins/userOrgList</t>
@@ -265,6 +265,15 @@
     <t>创建课堂接口测试</t>
   </si>
   <si>
+    <t>jsonpath取值,sta_time</t>
+  </si>
+  <si>
+    <t>$.result[0].id,100</t>
+  </si>
+  <si>
+    <t>classid,data_time</t>
+  </si>
+  <si>
     <t>step_04</t>
   </si>
   <si>
@@ -274,7 +283,7 @@
     <t>/wordoor_uaas_api/v1/busins/cloudClass/create</t>
   </si>
   <si>
-    <t>{"broadPeriod": 2,"classType": 2,"cover": "https://image1.gopopon.com/20201126161620cef6f25be85b98f8a3f1f31a7033bfe048991517","creatorOrgId": ${departmentId},"description": "日常接口测试","name": "API_TEST_日常接口测试","participateMajor": ${classid},"userId": ${userid}}</t>
+    <t>{"broadPeriod": 2,"classType": 2,"cover": "https://image1.gopopon.com/20201126161620cef6f25be85b98f8a3f1f31a7033bfe048991517","creatorOrgId": ${departmentId},"description": "日常接口测试","name": "API_TEST_日常接口测试_${data_time}","participateMajor": ${classid},"userId": ${userid}}</t>
   </si>
   <si>
     <t>api_case_12</t>
@@ -344,9 +353,6 @@
   </si>
   <si>
     <t>云课堂创建课时接口测试</t>
-  </si>
-  <si>
-    <t>jsonpath取值,sta_time</t>
   </si>
   <si>
     <t>$.result.items[0].id,100</t>
@@ -390,10 +396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -419,7 +425,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,56 +439,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,14 +462,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +508,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -533,16 +531,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,7 +569,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,31 +695,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,7 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,121 +743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,15 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -789,21 +786,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,132 +830,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,13 +988,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,15 +1004,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1341,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1352,16 +1355,16 @@
     <col min="3" max="3" width="14.2767857142857" customWidth="1"/>
     <col min="4" max="4" width="13.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
-    <col min="6" max="6" width="15.4732142857143" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.4732142857143" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="45.2410714285714" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.6607142857143" customWidth="1"/>
-    <col min="10" max="10" width="90.0178571428571" style="3" customWidth="1"/>
+    <col min="8" max="8" width="45.2410714285714" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="90.0178571428571" style="2" customWidth="1"/>
     <col min="11" max="11" width="27.6785714285714" customWidth="1"/>
     <col min="12" max="12" width="51.4821428571429" customWidth="1"/>
     <col min="13" max="13" width="14.7321428571429" customWidth="1"/>
     <col min="14" max="14" width="17.2589285714286" customWidth="1"/>
-    <col min="15" max="15" width="23.0625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="23.0625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1380,19 +1383,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1407,33 +1410,33 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
@@ -1442,35 +1445,35 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
@@ -1485,30 +1488,29 @@
       <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K4" t="s">
@@ -1523,33 +1525,33 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
@@ -1564,30 +1566,29 @@
       <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K6" t="s">
@@ -1602,62 +1603,61 @@
       <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
@@ -1672,30 +1672,29 @@
       <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K9" t="s">
@@ -1710,62 +1709,61 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K11" t="s">
@@ -1780,30 +1778,29 @@
       <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
@@ -1818,62 +1815,61 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K14" t="s">
@@ -1888,30 +1884,29 @@
       <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1926,62 +1921,61 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="A16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="N16" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K17" t="s">
@@ -1996,30 +1990,29 @@
       <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
@@ -2034,62 +2027,61 @@
       <c r="N18" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="N19" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="F20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K20" t="s">
@@ -2104,30 +2096,29 @@
       <c r="N20" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K21" t="s">
@@ -2142,62 +2133,61 @@
       <c r="N21" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>70</v>
       </c>
       <c r="N22" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="F23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K23" t="s">
@@ -2212,30 +2202,29 @@
       <c r="N23" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K24" t="s">
@@ -2250,30 +2239,29 @@
       <c r="N24" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="A25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>75</v>
       </c>
       <c r="K25" t="s">
@@ -2288,33 +2276,33 @@
       <c r="N25" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K26" t="s">
@@ -2329,30 +2317,29 @@
       <c r="N26" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="A27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K27" t="s">
@@ -2367,62 +2354,61 @@
       <c r="N27" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="A28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>75</v>
       </c>
       <c r="N28" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K29" t="s">
@@ -2437,30 +2423,29 @@
       <c r="N29" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="A30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K30" t="s">
@@ -2475,100 +2460,98 @@
       <c r="N30" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
+      <c r="A31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E31" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="2" t="s">
         <v>75</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="M31" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N31" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>83</v>
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>86</v>
+      <c r="H32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="N32" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="F33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K33" t="s">
@@ -2583,30 +2566,30 @@
       <c r="N33" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K34" t="s">
@@ -2621,62 +2604,62 @@
       <c r="N34" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>91</v>
+      <c r="H35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="N35" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="F36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K36" t="s">
@@ -2691,30 +2674,30 @@
       <c r="N36" t="s">
         <v>31</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E37" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K37" t="s">
@@ -2729,62 +2712,62 @@
       <c r="N37" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>96</v>
+      <c r="H38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="N38" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="A39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="F39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
@@ -2799,30 +2782,30 @@
       <c r="N39" t="s">
         <v>31</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K40" t="s">
@@ -2837,31 +2820,31 @@
       <c r="N40" t="s">
         <v>41</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>96</v>
+      <c r="H41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K41" t="s">
         <v>38</v>
@@ -2870,67 +2853,67 @@
         <v>39</v>
       </c>
       <c r="M41" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N41" t="s">
         <v>41</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>83</v>
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G42" t="s">
         <v>35</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N42" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="A43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="F43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K43" t="s">
@@ -2945,30 +2928,29 @@
       <c r="N43" t="s">
         <v>31</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
+      <c r="A44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K44" t="s">
@@ -2983,62 +2965,61 @@
       <c r="N44" t="s">
         <v>41</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
+      <c r="A45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>107</v>
+      <c r="H45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="N45" t="s">
         <v>41</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="F46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K46" t="s">
@@ -3053,30 +3034,29 @@
       <c r="N46" t="s">
         <v>31</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
+      <c r="A47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K47" t="s">
@@ -3091,100 +3071,98 @@
       <c r="N47" t="s">
         <v>41</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
+      <c r="A48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>107</v>
+      <c r="H48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="K48" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M48" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N48" t="s">
         <v>41</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="4"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>83</v>
+      <c r="A49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>115</v>
+      <c r="H49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="N49" t="s">
         <v>41</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="B50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="F50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K50" t="s">
@@ -3199,30 +3177,29 @@
       <c r="N50" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4" t="s">
+      <c r="A51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K51" t="s">
@@ -3237,37 +3214,36 @@
       <c r="N51" t="s">
         <v>41</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
+      <c r="A52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>107</v>
+      <c r="H52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="K52" t="s">
         <v>38</v>
       </c>
       <c r="L52" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M52" t="s">
         <v>76</v>
@@ -3275,36 +3251,35 @@
       <c r="N52" t="s">
         <v>41</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="2">
         <v>200</v>
       </c>
     </row>
     <row r="53" ht="18" spans="1:15">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>83</v>
+      <c r="A53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>122</v>
+      <c r="H53" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="N53" t="s">
         <v>41</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="2">
         <v>200</v>
       </c>
     </row>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11760"/>
+    <workbookView windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -376,9 +376,6 @@
     <t>删除云课堂接口测试</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>$.result.items[0].id</t>
   </si>
   <si>
@@ -389,6 +386,30 @@
   </si>
   <si>
     <t>{"id":${classid},"userId":${userid}}</t>
+  </si>
+  <si>
+    <t>api_case_18</t>
+  </si>
+  <si>
+    <t>创建考试任务接口测试</t>
+  </si>
+  <si>
+    <t>jsonpath取值,datetime,datetime</t>
+  </si>
+  <si>
+    <t>$.result[0].clanId,1,5</t>
+  </si>
+  <si>
+    <t>classid,sta_time,end_time</t>
+  </si>
+  <si>
+    <t>创建考试任务接口</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/clanTask/clanTaskCreUpBatch</t>
+  </si>
+  <si>
+    <t>{"draft": "false","clanIds": ${classid},"endAt": "${end_time}","startAt": "${sta_time}","userId": ${userid},"taskItems": "[{'taskItemType': '6', 'taskItemTitle': 'API_日常测试考试任务发布_${sta_time}', 'taskItemCover': '', 'taskItemDesc': '${sta_time}接口测试','taskItemContent': '181', 'taskType': 1}]","examDuration": "7200"}</t>
   </si>
 </sst>
 </file>
@@ -397,9 +418,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -417,20 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -440,7 +447,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,9 +498,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,47 +530,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,7 +547,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,17 +560,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,13 +584,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,19 +656,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,19 +668,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,7 +686,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,109 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +811,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -805,17 +846,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -827,15 +857,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,145 +880,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1342,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="J47" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -1362,7 +1383,7 @@
     <col min="10" max="10" width="90.0178571428571" style="2" customWidth="1"/>
     <col min="11" max="11" width="27.6785714285714" customWidth="1"/>
     <col min="12" max="12" width="51.4821428571429" customWidth="1"/>
-    <col min="13" max="13" width="14.7321428571429" customWidth="1"/>
+    <col min="13" max="13" width="26.0446428571429" customWidth="1"/>
     <col min="14" max="14" width="17.2589285714286" customWidth="1"/>
     <col min="15" max="15" width="23.0625" style="2" customWidth="1"/>
   </cols>
@@ -3148,7 +3169,7 @@
         <v>119</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>18</v>
@@ -3243,7 +3264,7 @@
         <v>38</v>
       </c>
       <c r="L52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M52" t="s">
         <v>76</v>
@@ -3262,29 +3283,185 @@
         <v>86</v>
       </c>
       <c r="E53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
-      </c>
-      <c r="H53" s="5" t="s">
+      <c r="J53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="N53" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N53" t="s">
-        <v>41</v>
-      </c>
-      <c r="O53" s="2">
-        <v>200</v>
-      </c>
+      <c r="B54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M55" t="s">
+        <v>44</v>
+      </c>
+      <c r="N55" t="s">
+        <v>41</v>
+      </c>
+      <c r="O55" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s">
+        <v>126</v>
+      </c>
+      <c r="L56" t="s">
+        <v>127</v>
+      </c>
+      <c r="M56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N56" t="s">
+        <v>41</v>
+      </c>
+      <c r="O56" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="N57" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="51">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -3301,6 +3478,7 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A57"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -3317,6 +3495,7 @@
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -3333,10 +3512,11 @@
     <mergeCell ref="C43:C45"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C54:C57"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K1:K3 K53:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N49 N53 N1:N35 N36:N38 N39:N41 N43:N45 N46:N48 N50:N52 N54:N1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K1:K3 K57:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N49 N53 N1:N35 N36:N38 N39:N41 N43:N45 N46:N48 N50:N52 N54:N56 N57:N1048576">
       <formula1>"none,response_code,code_check,header_key,header_key_value,body_regexp,json_key_value,json_key"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -410,6 +410,700 @@
   </si>
   <si>
     <t>{"draft": "false","clanIds": ${classid},"endAt": "${end_time}","startAt": "${sta_time}","userId": ${userid},"taskItems": "[{'taskItemType': '6', 'taskItemTitle': 'API_日常测试考试任务发布_${sta_time}', 'taskItemCover': '', 'taskItemDesc': '${sta_time}接口测试','taskItemContent': '181', 'taskType': 1}]","examDuration": "7200"}</t>
+  </si>
+  <si>
+    <t>api_case_19</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/sessions/create</t>
+  </si>
+  <si>
+    <t>{"acc": "fl88@sina.com", "pwd": "123456q-"}</t>
+  </si>
+  <si>
+    <t>api_case_20</t>
+  </si>
+  <si>
+    <t>获取我的基础信息接口测试</t>
+  </si>
+  <si>
+    <t>$.result.config.id,A-Token-Header</t>
+  </si>
+  <si>
+    <t>user/detail</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/user/detail</t>
+  </si>
+  <si>
+    <t>{"targetUserId": " ${userid}", "userId": " ${userid}"}</t>
+  </si>
+  <si>
+    <t>api_case_21</t>
+  </si>
+  <si>
+    <t>官方，服务者，顶部训练营列表</t>
+  </si>
+  <si>
+    <t>official_summary_page</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/campx/tutor/official_summary_page</t>
+  </si>
+  <si>
+    <t>{ "userId": " ${userid}"}</t>
+  </si>
+  <si>
+    <t>api_case_22</t>
+  </si>
+  <si>
+    <t>接单配置</t>
+  </si>
+  <si>
+    <t>callInConfigV2</t>
+  </si>
+  <si>
+    <t>/wordoor_serveprovider2c_api/v1/provider/callInConfigV2</t>
+  </si>
+  <si>
+    <t>api_case_23</t>
+  </si>
+  <si>
+    <t>我的收益汇总</t>
+  </si>
+  <si>
+    <t>profit/summary</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/wallet/profit/summary</t>
+  </si>
+  <si>
+    <t>api_case_24</t>
+  </si>
+  <si>
+    <t>课程销售排行（销售数量排行）</t>
+  </si>
+  <si>
+    <t>findSalesRanking</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/newcourse/findSalesRanking</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{ "userId": " ${userid}","orderType":"PURCHASEAMOUNT","pn":"1","ps":"20"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>api_case_25</t>
+  </si>
+  <si>
+    <t>课程销售排行（销售金额排行）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{ "userId": " ${userid}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,"orderType":"SOLDAMOUNT","pn":"1","ps":"20"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>api_case_26</t>
+  </si>
+  <si>
+    <t>binding_push_handset</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/binding_push_handset</t>
+  </si>
+  <si>
+    <t>{ "registrationId":"1104a8979229f36afa6","userId": " ${userid}"}</t>
+  </si>
+  <si>
+    <t>api_case_27</t>
+  </si>
+  <si>
+    <t>融云token</t>
+  </si>
+  <si>
+    <t>fetch_rongim_token</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/fetch_rongim_token</t>
+  </si>
+  <si>
+    <t>{ "channelPrefix":"S","refresh":"true","userId": " ${userid}"}</t>
+  </si>
+  <si>
+    <t>api_case_28</t>
+  </si>
+  <si>
+    <t>刷新token</t>
+  </si>
+  <si>
+    <t>present/refresh_ping</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/user/present/refresh_ping</t>
+  </si>
+  <si>
+    <t>{"service":"true","userId": " ${userid}"}</t>
+  </si>
+  <si>
+    <t>api_case_29</t>
+  </si>
+  <si>
+    <t>服务者收入流水</t>
+  </si>
+  <si>
+    <t>income_wallet_logs</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/wallet/income_wallet_logs</t>
+  </si>
+  <si>
+    <t>{"monthDate":"2021-02","userId": " ${userid}","vt":"PopCoin","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_30</t>
+  </si>
+  <si>
+    <t>用户收益（月度汇总）</t>
+  </si>
+  <si>
+    <t>monthly/summary</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/wallet/monthly/summary</t>
+  </si>
+  <si>
+    <t>{"monthDate":"2021-02","userId": " ${userid}","vt":"PopCoin"}</t>
+  </si>
+  <si>
+    <t>api_case_31</t>
+  </si>
+  <si>
+    <t>用户钱包详情</t>
+  </si>
+  <si>
+    <t>wallet/detail</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/wallet/detail</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}"}</t>
+  </si>
+  <si>
+    <t>api_case_32</t>
+  </si>
+  <si>
+    <t>教练订单分类分页查询（异常订单）</t>
+  </si>
+  <si>
+    <t>user/orderCategoryPage</t>
+  </si>
+  <si>
+    <t>/wordoor_serveprovider2c_api/v1/serve_v2/user/orderCategoryPage</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","orderQueryType":"2","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_33</t>
+  </si>
+  <si>
+    <t>教练订单分类分页查询（全部订单）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>user/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>orderCategoryPage</t>
+    </r>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","orderQueryType":"0","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_34</t>
+  </si>
+  <si>
+    <t>教练订单分类分页查询（差评订单）</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","orderQueryType":"6","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_35</t>
+  </si>
+  <si>
+    <t>用户收益来源查询</t>
+  </si>
+  <si>
+    <t>user/incomeRecordPage</t>
+  </si>
+  <si>
+    <t>/wordoor_serveprovider2c_api/v1/serve_v2/user/incomeRecordPage</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_36</t>
+  </si>
+  <si>
+    <t>粉丝列表</t>
+  </si>
+  <si>
+    <t>user/fansList</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/user/fansList</t>
+  </si>
+  <si>
+    <t>api_case_37</t>
+  </si>
+  <si>
+    <t>点赞列表</t>
+  </si>
+  <si>
+    <t>query_v2</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/commnetChaos/query_v2</t>
+  </si>
+  <si>
+    <t>{"action":"Praise","targetUserId":"${userid}","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_38</t>
+  </si>
+  <si>
+    <t>评论列表</t>
+  </si>
+  <si>
+    <t>{"action":"Comment","targetUserId":"${userid}","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_39</t>
+  </si>
+  <si>
+    <t>访客列表</t>
+  </si>
+  <si>
+    <t>visitor/page</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/visitor/page</t>
+  </si>
+  <si>
+    <t>api_case_40</t>
+  </si>
+  <si>
+    <t>用户个人问候语分页查询</t>
+  </si>
+  <si>
+    <t>sentences/list</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/sentences/list</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","pn":"1","ps":"50"}</t>
+  </si>
+  <si>
+    <t>api_case_41</t>
+  </si>
+  <si>
+    <t>部落帖子列表</t>
+  </si>
+  <si>
+    <t>$.result.tribes.[0].id</t>
+  </si>
+  <si>
+    <t>tribeid</t>
+  </si>
+  <si>
+    <t>post/page</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/tribe/post/page</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","pn":"1","ps":"50","tribeId":"${tribeid}"}</t>
+  </si>
+  <si>
+    <t>api_case_43</t>
+  </si>
+  <si>
+    <t>部落详情</t>
+  </si>
+  <si>
+    <t>tribe/detail</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/tribe/detail</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","tribeId":"${tribeid}"}</t>
+  </si>
+  <si>
+    <t>api_case_44</t>
+  </si>
+  <si>
+    <t>部落训练营列表</t>
+  </si>
+  <si>
+    <t>opon/tribe_page</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/campx/popon/tribe_page</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","targetTribeId":"${tribeid}","pn":"1","ps":"3"}</t>
+  </si>
+  <si>
+    <t>api_case_45</t>
+  </si>
+  <si>
+    <t>(T)(官方)服务页-顶部训练营列表</t>
+  </si>
+  <si>
+    <t>tutor/official_summary_page</t>
+  </si>
+  <si>
+    <t>api_case_46</t>
+  </si>
+  <si>
+    <t>某个部落信息流列表</t>
+  </si>
+  <si>
+    <t>tribe/page</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/tribe_flow/tribe/page</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","targetTribeId":"${tribeid}","pn":"1","ps":"20","contentTypes":"VO"}</t>
+  </si>
+  <si>
+    <t>api_case_47</t>
+  </si>
+  <si>
+    <t>web|app-查询情景主题课分页列表</t>
+  </si>
+  <si>
+    <t>pageSceneDialogSeries</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/c2SceneDialogSeries/pageSceneDialogSeries</t>
+  </si>
+  <si>
+    <t>{"viewUserId": " ${userid}","valid":"2","targetTribeId":"${tribeid}","pn":"1","ps":"4","fromType":"APP"}</t>
+  </si>
+  <si>
+    <t>api_case_48</t>
+  </si>
+  <si>
+    <t>学生端 查询 服务者或部落的专辑列表</t>
+  </si>
+  <si>
+    <t>album/learnAlbums</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/album/learnAlbums</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","tribeId":"${tribeid}","pn":"1","ps":"3"}</t>
+  </si>
+  <si>
+    <t>api_case_49</t>
+  </si>
+  <si>
+    <t>clanCourseSpecialPage</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/newcourse/clanCourseSpecialPage</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","tribeId":"${tribeid}","pn":"1","ps":"4"}</t>
+  </si>
+  <si>
+    <t>api_case_50</t>
+  </si>
+  <si>
+    <t>app-轻课部落课程列表</t>
+  </si>
+  <si>
+    <t>tribeCourses</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/softcourse/tribeCourses</t>
+  </si>
+  <si>
+    <t>api_case_51</t>
+  </si>
+  <si>
+    <t>api_case_52</t>
+  </si>
+  <si>
+    <t>(T)内容中心平台热门</t>
+  </si>
+  <si>
+    <t>tutor/hots</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/campx/tutor/hots</t>
+  </si>
+  <si>
+    <t>api_case_53</t>
+  </si>
+  <si>
+    <t>募集作品列表</t>
+  </si>
+  <si>
+    <t>home/opus_page</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/content/home/opus_page</t>
+  </si>
+  <si>
+    <t>api_case_54</t>
+  </si>
+  <si>
+    <t>教练端-查询我的专辑资源</t>
+  </si>
+  <si>
+    <t>album/q/page</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/album/q/page</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","status":"2","pn":"1","2"}</t>
+  </si>
+  <si>
+    <t>api_case_55</t>
+  </si>
+  <si>
+    <t>内容平台资源(首页)</t>
+  </si>
+  <si>
+    <t>album/platformPage</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/album/platformPage</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","pn":"1","ps":"3"}</t>
+  </si>
+  <si>
+    <t>api_case_56</t>
+  </si>
+  <si>
+    <t>内容平台资源(更多详情页面)</t>
+  </si>
+  <si>
+    <t>api_case_57</t>
+  </si>
+  <si>
+    <t>app-情景主题课-我领取的主题课列表</t>
+  </si>
+  <si>
+    <t>myRefSceneDialogSeriesPageQuery</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/c2SceneDialogSeries/myRefSceneDialogSeriesPageQuery</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","valid":"2","pn":"1","ps":"2"}</t>
+  </si>
+  <si>
+    <t>api_case_58</t>
+  </si>
+  <si>
+    <t>web-查询情景主题课平台资源分页</t>
+  </si>
+  <si>
+    <t>platformSeries</t>
+  </si>
+  <si>
+    <t>/wordoor_content_api/v1/c2SceneDialogSeries/platformSeries</t>
+  </si>
+  <si>
+    <t>{"viewUserId": " ${userid}","fromType":"APP","sourceType":"0","language":"Chinese","pn":"1","ps":"3"}</t>
+  </si>
+  <si>
+    <t>api_case_59</t>
+  </si>
+  <si>
+    <t>用户部落功能权限判定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>step_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>tribe/fun_authority</t>
+  </si>
+  <si>
+    <t>/wordoor_clan2c_api/v1/tribe/fun_authority</t>
+  </si>
+  <si>
+    <t>api_case_60</t>
+  </si>
+  <si>
+    <t>动态</t>
+  </si>
+  <si>
+    <t>dynamic/view</t>
+  </si>
+  <si>
+    <t>/wordoor_dynamic_api/v1/dynamic/view</t>
+  </si>
+  <si>
+    <t>{"observer": " ${userid}","operateType":"0","publisher":"${userid}","status":"1","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_61</t>
+  </si>
+  <si>
+    <t>个人中心评价列表</t>
+  </si>
+  <si>
+    <t>evaluate/list</t>
+  </si>
+  <si>
+    <t>/wordoor_serveprovider2c_api/v1/serve/user/homepage/evaluate/list</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","uId":"${userid}","pn":"1","ps":"20"}</t>
+  </si>
+  <si>
+    <t>api_case_62</t>
+  </si>
+  <si>
+    <t>我的相册</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jsonpath取值,响应头取值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,datetime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>$.result.config.id,A-Token-Header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,7</t>
+    </r>
+  </si>
+  <si>
+    <t>userid,token,date_time</t>
+  </si>
+  <si>
+    <t>myPhotos</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/photo/myPhotos</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","targetUserId":"${userid}","pn":"1","ps":"5","":"${date_time}"}</t>
   </si>
 </sst>
 </file>
@@ -422,8 +1116,23 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -769,12 +1478,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -880,156 +1617,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1043,6 +1786,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1363,36 +2148,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J47" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="17.1071428571429" customWidth="1"/>
-    <col min="2" max="2" width="31.6964285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.6964285714286" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.2767857142857" customWidth="1"/>
     <col min="4" max="4" width="13.3839285714286" customWidth="1"/>
     <col min="5" max="5" width="21.2767857142857" customWidth="1"/>
-    <col min="6" max="6" width="15.4732142857143" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.4732142857143" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="45.2410714285714" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.2410714285714" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.5714285714286" customWidth="1"/>
-    <col min="10" max="10" width="90.0178571428571" style="2" customWidth="1"/>
+    <col min="10" max="10" width="90.0178571428571" style="4" customWidth="1"/>
     <col min="11" max="11" width="27.6785714285714" customWidth="1"/>
     <col min="12" max="12" width="51.4821428571429" customWidth="1"/>
     <col min="13" max="13" width="26.0446428571429" customWidth="1"/>
     <col min="14" max="14" width="17.2589285714286" customWidth="1"/>
-    <col min="15" max="15" width="23.0625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.0625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1404,19 +2189,19 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1431,33 +2216,33 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K2" t="s">
@@ -1466,35 +2251,35 @@
       <c r="N2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="5"/>
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
@@ -1509,29 +2294,29 @@
       <c r="N3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K4" t="s">
@@ -1546,33 +2331,33 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K5" t="s">
@@ -1587,29 +2372,29 @@
       <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K6" t="s">
@@ -1624,61 +2409,61 @@
       <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
@@ -1693,29 +2478,29 @@
       <c r="N8" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K9" t="s">
@@ -1730,61 +2515,61 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="A10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K11" t="s">
@@ -1799,29 +2584,29 @@
       <c r="N11" t="s">
         <v>31</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K12" t="s">
@@ -1836,61 +2621,61 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="4" t="s">
         <v>53</v>
       </c>
       <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K14" t="s">
@@ -1905,29 +2690,29 @@
       <c r="N14" t="s">
         <v>31</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K15" t="s">
@@ -1942,61 +2727,61 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>53</v>
       </c>
       <c r="N16" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K17" t="s">
@@ -2011,29 +2796,29 @@
       <c r="N17" t="s">
         <v>31</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K18" t="s">
@@ -2048,61 +2833,61 @@
       <c r="N18" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="4" t="s">
         <v>53</v>
       </c>
       <c r="N19" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="2" t="s">
+      <c r="F20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K20" t="s">
@@ -2117,29 +2902,29 @@
       <c r="N20" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="A21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E21" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K21" t="s">
@@ -2154,61 +2939,61 @@
       <c r="N21" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="A22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="4" t="s">
         <v>70</v>
       </c>
       <c r="N22" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="F23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K23" t="s">
@@ -2223,29 +3008,29 @@
       <c r="N23" t="s">
         <v>31</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="A24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K24" t="s">
@@ -2260,29 +3045,29 @@
       <c r="N24" t="s">
         <v>41</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="A25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K25" t="s">
@@ -2297,33 +3082,33 @@
       <c r="N25" t="s">
         <v>41</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K26" t="s">
@@ -2338,29 +3123,29 @@
       <c r="N26" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="A27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K27" t="s">
@@ -2375,61 +3160,61 @@
       <c r="N27" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="A28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>75</v>
       </c>
       <c r="N28" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="2" t="s">
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K29" t="s">
@@ -2444,29 +3229,29 @@
       <c r="N29" t="s">
         <v>31</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="A30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K30" t="s">
@@ -2481,29 +3266,29 @@
       <c r="N30" t="s">
         <v>41</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="A31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E31" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K31" t="s">
@@ -2518,61 +3303,61 @@
       <c r="N31" t="s">
         <v>41</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="A32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E32" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>89</v>
       </c>
       <c r="N32" t="s">
         <v>41</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="2" t="s">
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K33" t="s">
@@ -2587,30 +3372,30 @@
       <c r="N33" t="s">
         <v>31</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
+      <c r="A34" s="5"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K34" t="s">
@@ -2625,62 +3410,62 @@
       <c r="N34" t="s">
         <v>41</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E35" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="4" t="s">
         <v>94</v>
       </c>
       <c r="N35" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="F36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K36" t="s">
@@ -2695,30 +3480,30 @@
       <c r="N36" t="s">
         <v>31</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="A37" s="5"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E37" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K37" t="s">
@@ -2733,62 +3518,62 @@
       <c r="N37" t="s">
         <v>41</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E38" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="4" t="s">
         <v>99</v>
       </c>
       <c r="N38" t="s">
         <v>41</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="2" t="s">
+      <c r="F39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K39" t="s">
@@ -2803,30 +3588,30 @@
       <c r="N39" t="s">
         <v>31</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="A40" s="5"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K40" t="s">
@@ -2841,30 +3626,30 @@
       <c r="N40" t="s">
         <v>41</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="4" t="s">
         <v>99</v>
       </c>
       <c r="K41" t="s">
@@ -2879,21 +3664,21 @@
       <c r="N41" t="s">
         <v>41</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
+      <c r="A42" s="5"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G42" t="s">
@@ -2908,33 +3693,33 @@
       <c r="N42" t="s">
         <v>41</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="F43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K43" t="s">
@@ -2949,29 +3734,29 @@
       <c r="N43" t="s">
         <v>31</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
+      <c r="A44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K44" t="s">
@@ -2986,61 +3771,61 @@
       <c r="N44" t="s">
         <v>41</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
+      <c r="A45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E45" t="s">
         <v>108</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="4" t="s">
         <v>110</v>
       </c>
       <c r="N45" t="s">
         <v>41</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="2" t="s">
+      <c r="F46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K46" t="s">
@@ -3055,29 +3840,29 @@
       <c r="N46" t="s">
         <v>31</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="O46" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
+      <c r="A47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K47" t="s">
@@ -3092,29 +3877,29 @@
       <c r="N47" t="s">
         <v>41</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
+      <c r="A48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
         <v>110</v>
       </c>
       <c r="K48" t="s">
@@ -3129,61 +3914,61 @@
       <c r="N48" t="s">
         <v>41</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
+      <c r="A49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E49" t="s">
         <v>115</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G49" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="4" t="s">
         <v>117</v>
       </c>
       <c r="N49" t="s">
         <v>41</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="2" t="s">
+      <c r="F50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K50" t="s">
@@ -3198,29 +3983,29 @@
       <c r="N50" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3" t="s">
+      <c r="A51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>35</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K51" t="s">
@@ -3235,29 +4020,29 @@
       <c r="N51" t="s">
         <v>41</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3" t="s">
+      <c r="A52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E52" t="s">
         <v>108</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="4" t="s">
         <v>110</v>
       </c>
       <c r="K52" t="s">
@@ -3272,61 +4057,61 @@
       <c r="N52" t="s">
         <v>41</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="53" ht="18" spans="1:15">
-      <c r="A53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
+      <c r="A53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E53" t="s">
         <v>121</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="4" t="s">
         <v>123</v>
       </c>
       <c r="N53" t="s">
         <v>41</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="2" t="s">
+      <c r="F54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K54" t="s">
@@ -3341,29 +4126,29 @@
       <c r="N54" t="s">
         <v>31</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="O54" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3" t="s">
+      <c r="A55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K55" t="s">
@@ -3378,29 +4163,29 @@
       <c r="N55" t="s">
         <v>41</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3" t="s">
+      <c r="A56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E56" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="4" t="s">
         <v>75</v>
       </c>
       <c r="K56" t="s">
@@ -3415,53 +4200,3756 @@
       <c r="N56" t="s">
         <v>41</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3" t="s">
+      <c r="A57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E57" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G57" t="s">
         <v>35</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="4" t="s">
         <v>131</v>
       </c>
       <c r="N57" t="s">
         <v>41</v>
       </c>
-      <c r="O57" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="1"/>
+      <c r="O57" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="1:16">
+      <c r="A58" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="10"/>
+      <c r="H58" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" s="10"/>
+      <c r="J58" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:16">
+      <c r="A59" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" s="2" customFormat="1" spans="1:16">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O60" s="9">
+        <v>200</v>
+      </c>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" s="2" customFormat="1" spans="1:16">
+      <c r="A61" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="10"/>
+      <c r="J61" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" s="2" customFormat="1" spans="1:16">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O62" s="9">
+        <v>200</v>
+      </c>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A63" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" s="2" customFormat="1" spans="1:16">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I64" s="10"/>
+      <c r="J64" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64" s="9">
+        <v>200</v>
+      </c>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A65" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="10"/>
+      <c r="J65" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" s="2" customFormat="1" spans="1:16">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I66" s="10"/>
+      <c r="J66" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O66" s="9">
+        <v>200</v>
+      </c>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A67" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" s="10"/>
+      <c r="J67" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="18" spans="1:16">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="10"/>
+      <c r="J68" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O68" s="9">
+        <v>200</v>
+      </c>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A69" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="10"/>
+      <c r="J69" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="18" spans="1:16">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O70" s="9">
+        <v>200</v>
+      </c>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A71" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="8">
+        <v>11</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" s="10"/>
+      <c r="J71" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" s="2" customFormat="1" spans="1:16">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O72" s="9">
+        <v>200</v>
+      </c>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A73" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I73" s="10"/>
+      <c r="J73" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M73" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" s="2" customFormat="1" spans="1:16">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O74" s="9">
+        <v>200</v>
+      </c>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:16">
+      <c r="A75" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" s="2" customFormat="1" spans="1:16">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I76" s="10"/>
+      <c r="J76" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O76" s="9">
+        <v>200</v>
+      </c>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A77" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="1:16">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O78" s="9">
+        <v>200</v>
+      </c>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A79" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N79" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" s="2" customFormat="1" spans="1:16">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O80" s="9">
+        <v>200</v>
+      </c>
+      <c r="P80" s="11"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A81" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I81" s="10"/>
+      <c r="J81" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" s="11"/>
+    </row>
+    <row r="82" s="2" customFormat="1" spans="1:16">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I82" s="10"/>
+      <c r="J82" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O82" s="9">
+        <v>200</v>
+      </c>
+      <c r="P82" s="11"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A83" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" s="10"/>
+      <c r="J83" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="11"/>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:16">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O84" s="9">
+        <v>200</v>
+      </c>
+      <c r="P84" s="11"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A85" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="10"/>
+      <c r="J85" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="11"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="18" spans="1:16">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I86" s="10"/>
+      <c r="J86" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O86" s="9">
+        <v>200</v>
+      </c>
+      <c r="P86" s="11"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A87" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="11"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="18" spans="1:16">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H88" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O88" s="9">
+        <v>200</v>
+      </c>
+      <c r="P88" s="11"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A89" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M89" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89" s="11"/>
+    </row>
+    <row r="90" s="2" customFormat="1" spans="1:16">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O90" s="9">
+        <v>200</v>
+      </c>
+      <c r="P90" s="11"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A91" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M91" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N91" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="11"/>
+    </row>
+    <row r="92" s="2" customFormat="1" spans="1:16">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="I92" s="10"/>
+      <c r="J92" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O92" s="9">
+        <v>200</v>
+      </c>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A93" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I93" s="10"/>
+      <c r="J93" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M93" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="11"/>
+    </row>
+    <row r="94" s="2" customFormat="1" spans="1:16">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I94" s="10"/>
+      <c r="J94" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O94" s="9">
+        <v>200</v>
+      </c>
+      <c r="P94" s="11"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A95" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N95" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="11"/>
+    </row>
+    <row r="96" s="2" customFormat="1" spans="1:16">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I96" s="10"/>
+      <c r="J96" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O96" s="9">
+        <v>200</v>
+      </c>
+      <c r="P96" s="11"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A97" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M97" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N97" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="11"/>
+    </row>
+    <row r="98" s="2" customFormat="1" spans="1:16">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I98" s="10"/>
+      <c r="J98" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O98" s="9">
+        <v>200</v>
+      </c>
+      <c r="P98" s="11"/>
+    </row>
+    <row r="99" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A99" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I99" s="10"/>
+      <c r="J99" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K99" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L99" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M99" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N99" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="11"/>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:16">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="I100" s="10"/>
+      <c r="J100" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O100" s="9">
+        <v>200</v>
+      </c>
+      <c r="P100" s="11"/>
+    </row>
+    <row r="101" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:16">
+      <c r="A101" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I101" s="10"/>
+      <c r="J101" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N101" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="11"/>
+    </row>
+    <row r="102" s="2" customFormat="1" spans="1:16">
+      <c r="A102" s="5"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I102" s="10"/>
+      <c r="J102" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N102" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O102" s="9">
+        <v>200</v>
+      </c>
+      <c r="P102" s="11"/>
+    </row>
+    <row r="103" s="2" customFormat="1" spans="1:16">
+      <c r="A103" s="5"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I103" s="10"/>
+      <c r="J103" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O103" s="9">
+        <v>200</v>
+      </c>
+      <c r="P103" s="11"/>
+    </row>
+    <row r="104" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A104" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I104" s="10"/>
+      <c r="J104" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L104" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N104" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" s="11"/>
+    </row>
+    <row r="105" s="2" customFormat="1" spans="1:16">
+      <c r="A105" s="5"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I105" s="10"/>
+      <c r="J105" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N105" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O105" s="9">
+        <v>200</v>
+      </c>
+      <c r="P105" s="11"/>
+    </row>
+    <row r="106" s="2" customFormat="1" spans="1:16">
+      <c r="A106" s="5"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="I106" s="10"/>
+      <c r="J106" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O106" s="9">
+        <v>200</v>
+      </c>
+      <c r="P106" s="11"/>
+    </row>
+    <row r="107" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A107" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N107" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="11"/>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="1:16">
+      <c r="A108" s="5"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I108" s="10"/>
+      <c r="J108" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L108" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M108" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N108" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O108" s="9">
+        <v>200</v>
+      </c>
+      <c r="P108" s="11"/>
+    </row>
+    <row r="109" s="2" customFormat="1" spans="1:16">
+      <c r="A109" s="5"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O109" s="9">
+        <v>200</v>
+      </c>
+      <c r="P109" s="11"/>
+    </row>
+    <row r="110" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A110" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I110" s="10"/>
+      <c r="J110" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L110" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N110" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" s="11"/>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="1:16">
+      <c r="A111" s="5"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I111" s="10"/>
+      <c r="J111" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O111" s="9">
+        <v>200</v>
+      </c>
+      <c r="P111" s="11"/>
+    </row>
+    <row r="112" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A112" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I112" s="10"/>
+      <c r="J112" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M112" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N112" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O112" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P112" s="11"/>
+    </row>
+    <row r="113" s="2" customFormat="1" spans="1:16">
+      <c r="A113" s="5"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I113" s="10"/>
+      <c r="J113" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M113" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N113" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O113" s="9">
+        <v>200</v>
+      </c>
+      <c r="P113" s="11"/>
+    </row>
+    <row r="114" s="2" customFormat="1" spans="1:16">
+      <c r="A114" s="5"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I114" s="10"/>
+      <c r="J114" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O114" s="9">
+        <v>200</v>
+      </c>
+      <c r="P114" s="11"/>
+    </row>
+    <row r="115" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A115" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I115" s="10"/>
+      <c r="J115" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M115" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O115" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P115" s="11"/>
+    </row>
+    <row r="116" s="2" customFormat="1" spans="1:16">
+      <c r="A116" s="5"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I116" s="10"/>
+      <c r="J116" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M116" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N116" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O116" s="9">
+        <v>200</v>
+      </c>
+      <c r="P116" s="11"/>
+    </row>
+    <row r="117" s="2" customFormat="1" spans="1:16">
+      <c r="A117" s="5"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I117" s="10"/>
+      <c r="J117" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O117" s="9">
+        <v>200</v>
+      </c>
+      <c r="P117" s="11"/>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A118" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I118" s="10"/>
+      <c r="J118" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P118" s="11"/>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:16">
+      <c r="A119" s="5"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I119" s="10"/>
+      <c r="J119" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L119" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M119" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N119" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O119" s="9">
+        <v>200</v>
+      </c>
+      <c r="P119" s="11"/>
+    </row>
+    <row r="120" s="2" customFormat="1" spans="1:16">
+      <c r="A120" s="5"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I120" s="10"/>
+      <c r="J120" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O120" s="9">
+        <v>200</v>
+      </c>
+      <c r="P120" s="11"/>
+    </row>
+    <row r="121" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A121" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I121" s="10"/>
+      <c r="J121" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L121" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M121" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P121" s="11"/>
+    </row>
+    <row r="122" s="2" customFormat="1" spans="1:16">
+      <c r="A122" s="5"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I122" s="10"/>
+      <c r="J122" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L122" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N122" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O122" s="9">
+        <v>200</v>
+      </c>
+      <c r="P122" s="11"/>
+    </row>
+    <row r="123" s="2" customFormat="1" ht="18" customHeight="1" spans="1:16">
+      <c r="A123" s="5"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="I123" s="10"/>
+      <c r="J123" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O123" s="9">
+        <v>200</v>
+      </c>
+      <c r="P123" s="11"/>
+    </row>
+    <row r="124" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A124" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I124" s="10"/>
+      <c r="J124" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L124" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M124" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O124" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P124" s="11"/>
+    </row>
+    <row r="125" s="2" customFormat="1" spans="1:16">
+      <c r="A125" s="5"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I125" s="10"/>
+      <c r="J125" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M125" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N125" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O125" s="9">
+        <v>200</v>
+      </c>
+      <c r="P125" s="11"/>
+    </row>
+    <row r="126" s="2" customFormat="1" spans="1:16">
+      <c r="A126" s="5"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="I126" s="10"/>
+      <c r="J126" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O126" s="9">
+        <v>200</v>
+      </c>
+      <c r="P126" s="11"/>
+    </row>
+    <row r="127" s="2" customFormat="1" ht="15.75" customHeight="1" spans="1:16">
+      <c r="A127" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I127" s="10"/>
+      <c r="J127" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L127" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M127" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O127" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P127" s="11"/>
+    </row>
+    <row r="128" s="2" customFormat="1" spans="1:16">
+      <c r="A128" s="5"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I128" s="10"/>
+      <c r="J128" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M128" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N128" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O128" s="9">
+        <v>200</v>
+      </c>
+      <c r="P128" s="11"/>
+    </row>
+    <row r="129" s="2" customFormat="1" spans="1:16">
+      <c r="A129" s="5"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I129" s="10"/>
+      <c r="J129" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O129" s="9">
+        <v>200</v>
+      </c>
+      <c r="P129" s="11"/>
+    </row>
+    <row r="130" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A130" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I130" s="10"/>
+      <c r="J130" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L130" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M130" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N130" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P130" s="11"/>
+    </row>
+    <row r="131" s="2" customFormat="1" spans="1:16">
+      <c r="A131" s="5"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="I131" s="10"/>
+      <c r="J131" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O131" s="9">
+        <v>200</v>
+      </c>
+      <c r="P131" s="11"/>
+    </row>
+    <row r="132" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A132" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I132" s="10"/>
+      <c r="J132" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L132" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M132" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O132" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P132" s="11"/>
+    </row>
+    <row r="133" s="2" customFormat="1" spans="1:16">
+      <c r="A133" s="5"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H133" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="I133" s="10"/>
+      <c r="J133" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O133" s="9">
+        <v>200</v>
+      </c>
+      <c r="P133" s="11"/>
+    </row>
+    <row r="134" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A134" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="8"/>
+      <c r="H134" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I134" s="10"/>
+      <c r="J134" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L134" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M134" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N134" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P134" s="11"/>
+    </row>
+    <row r="135" s="2" customFormat="1" spans="1:16">
+      <c r="A135" s="5"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H135" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O135" s="9">
+        <v>200</v>
+      </c>
+      <c r="P135" s="11"/>
+    </row>
+    <row r="136" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A136" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="8"/>
+      <c r="H136" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I136" s="10"/>
+      <c r="J136" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K136" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L136" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M136" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N136" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O136" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P136" s="11"/>
+    </row>
+    <row r="137" s="2" customFormat="1" spans="1:16">
+      <c r="A137" s="5"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H137" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O137" s="9">
+        <v>200</v>
+      </c>
+      <c r="P137" s="11"/>
+    </row>
+    <row r="138" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A138" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="8"/>
+      <c r="H138" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I138" s="10"/>
+      <c r="J138" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L138" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M138" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N138" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P138" s="11"/>
+    </row>
+    <row r="139" s="2" customFormat="1" spans="1:16">
+      <c r="A139" s="5"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H139" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="I139" s="10"/>
+      <c r="J139" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O139" s="9">
+        <v>200</v>
+      </c>
+      <c r="P139" s="11"/>
+    </row>
+    <row r="140" s="3" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A140" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="8"/>
+      <c r="H140" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="I140" s="19"/>
+      <c r="J140" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K140" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L140" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="M140" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N140" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O140" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P140" s="21"/>
+    </row>
+    <row r="141" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A141" s="5"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I141" s="19"/>
+      <c r="J141" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O141" s="17">
+        <v>200</v>
+      </c>
+      <c r="P141" s="11"/>
+    </row>
+    <row r="142" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A142" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" s="8"/>
+      <c r="H142" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I142" s="10"/>
+      <c r="J142" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L142" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M142" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N142" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P142" s="11"/>
+    </row>
+    <row r="143" s="2" customFormat="1" spans="1:16">
+      <c r="A143" s="5"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H143" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="I143" s="10"/>
+      <c r="J143" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O143" s="9">
+        <v>200</v>
+      </c>
+      <c r="P143" s="11"/>
+    </row>
+    <row r="144" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A144" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="8"/>
+      <c r="H144" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I144" s="10"/>
+      <c r="J144" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L144" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M144" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N144" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P144" s="11"/>
+    </row>
+    <row r="145" s="2" customFormat="1" spans="1:16">
+      <c r="A145" s="5"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H145" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I145" s="10"/>
+      <c r="J145" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L145" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M145" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="N145" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O145" s="9">
+        <v>200</v>
+      </c>
+      <c r="P145" s="11"/>
+    </row>
+    <row r="146" s="2" customFormat="1" ht="18" spans="1:16">
+      <c r="A146" s="5"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="I146" s="10"/>
+      <c r="J146" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O146" s="9">
+        <v>200</v>
+      </c>
+      <c r="P146" s="11"/>
+    </row>
+    <row r="147" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A147" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" s="8"/>
+      <c r="H147" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I147" s="10"/>
+      <c r="J147" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L147" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M147" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N147" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P147" s="11"/>
+    </row>
+    <row r="148" s="2" customFormat="1" spans="1:16">
+      <c r="A148" s="5"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="I148" s="10"/>
+      <c r="J148" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O148" s="9">
+        <v>200</v>
+      </c>
+      <c r="P148" s="11"/>
+    </row>
+    <row r="149" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A149" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" s="8"/>
+      <c r="H149" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I149" s="10"/>
+      <c r="J149" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K149" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L149" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M149" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N149" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O149" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P149" s="11"/>
+    </row>
+    <row r="150" s="2" customFormat="1" spans="1:16">
+      <c r="A150" s="5"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I150" s="10"/>
+      <c r="J150" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O150" s="9">
+        <v>200</v>
+      </c>
+      <c r="P150" s="11"/>
+    </row>
+    <row r="151" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:16">
+      <c r="A151" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" s="8"/>
+      <c r="H151" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I151" s="10"/>
+      <c r="J151" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K151" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="L151" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="M151" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="N151" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O151" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P151" s="11"/>
+    </row>
+    <row r="152" s="2" customFormat="1" spans="1:16">
+      <c r="A152" s="5"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="F152" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H152" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="I152" s="10"/>
+      <c r="J152" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O152" s="9">
+        <v>200</v>
+      </c>
+      <c r="P152" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="177">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -3479,6 +7967,48 @@
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A54:A57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A114"/>
+    <mergeCell ref="A115:A117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A124:A126"/>
+    <mergeCell ref="A127:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A151:A152"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -3496,6 +8026,48 @@
     <mergeCell ref="B46:B49"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -3513,12 +8085,55 @@
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C152"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K1:K3 K57:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N49 N53 N1:N35 N36:N38 N39:N41 N43:N45 N46:N48 N50:N52 N54:N56 N57:N1048576">
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K1:K3 K153:K1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N49 N53 N57 N61 N62 N63 N64 N65 N66 N67 N68 N69 N70 N71 N72 N73 N74 N75 N76 N77 N78 N79 N80 N81 N141 N1:N35 N36:N38 N39:N41 N43:N45 N46:N48 N50:N52 N54:N56 N58:N60 N82:N140 N142:N152 N153:N1048576">
       <formula1>"none,response_code,code_check,header_key,header_key_value,body_regexp,json_key_value,json_key"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K61 K63 K65 K67 K69 K71 K73 K75 K77 K79 K81 K83 K85 K87 K89 K91 K93 K95 K97 K99 K110 K130 K132 K134 K136 K138 K140 K142 K147 K149 K151 K58:K59 K101:K105 K107:K108 K112:K113 K115:K116 K118:K119 K121:K122 K124:K125 K127:K128 K144:K145"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -455,7 +455,7 @@
     <t>/wordoor_uaas_api/v1/sessions/create</t>
   </si>
   <si>
-    <t>{"acc": "fl88@sina.com", "pwd": "123456q-"}</t>
+    <t>{"acc": "q4793623646@sina.com", "pwd": "lili123456"}</t>
   </si>
   <si>
     <t>无</t>
@@ -2278,8 +2278,8 @@
   <sheetPr/>
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -5072,9 +5072,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="10"/>
-      <c r="H76" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="H76" s="10"/>
       <c r="I76" s="12"/>
       <c r="J76" s="13" t="s">
         <v>138</v>

--- a/data/testcase_infos.xlsx
+++ b/data/testcase_infos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>教材小组添加、修改接口测试</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>教材小组添加、修改</t>
@@ -659,9 +662,6 @@
     <t>刷新token</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>present/refresh_ping</t>
   </si>
   <si>
@@ -1188,31 +1188,85 @@
     <t>api_case_67</t>
   </si>
   <si>
+    <t>config基础接口</t>
+  </si>
+  <si>
+    <t>client/configs</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/common/client/configs</t>
+  </si>
+  <si>
     <t>api_case_68</t>
   </si>
   <si>
+    <t>基础配置接口</t>
+  </si>
+  <si>
+    <t>sessions/validates</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/sessions/validates</t>
+  </si>
+  <si>
     <t>api_case_69</t>
   </si>
   <si>
+    <t>我的收益趋势图</t>
+  </si>
+  <si>
+    <t>jsonpath取值,响应头取值,datetime,datetime</t>
+  </si>
+  <si>
+    <t>$.result.config.id,A-Token-Header,0,-6</t>
+  </si>
+  <si>
+    <t>userid,token,end_time,start_time</t>
+  </si>
+  <si>
+    <t>daily/summary</t>
+  </si>
+  <si>
+    <t>/wordoor_uaas_api/v1/user/wallet/profit/daily/summary</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","endDate":"${end_time}","startDate":"${start_time}"}</t>
+  </si>
+  <si>
+    <t>month_time,month_time</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>start_month,end_month</t>
+  </si>
+  <si>
     <t>api_case_70</t>
   </si>
   <si>
+    <t>我的当月收益</t>
+  </si>
+  <si>
+    <t>jsonpath取值,响应头取值,month_time</t>
+  </si>
+  <si>
+    <t>$.result.config.id,A-Token-Header,0</t>
+  </si>
+  <si>
+    <t>userid,token,month_time</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","monthDate":"${month_time}","vt":"PopCoin"}</t>
+  </si>
+  <si>
     <t>api_case_71</t>
   </si>
   <si>
-    <t>api_case_72</t>
-  </si>
-  <si>
-    <t>api_case_73</t>
-  </si>
-  <si>
-    <t>api_case_74</t>
-  </si>
-  <si>
-    <t>api_case_75</t>
-  </si>
-  <si>
-    <t>api_case_76</t>
+    <t>我的当月收益记录</t>
+  </si>
+  <si>
+    <t>{"userId": " ${userid}","monthDate":"${month_time}","vt":"PopCoin","pn":"1","ps":"5"}</t>
   </si>
 </sst>
 </file>
@@ -2278,8 +2332,8 @@
   <sheetPr/>
   <dimension ref="A1:P214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -3477,7 +3531,7 @@
         <v>93</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>18</v>
@@ -3556,7 +3610,7 @@
         <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>20</v>
@@ -3565,10 +3619,10 @@
         <v>37</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N35" t="s">
         <v>43</v>
@@ -3579,13 +3633,13 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>18</v>
@@ -3664,7 +3718,7 @@
         <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>20</v>
@@ -3673,10 +3727,10 @@
         <v>37</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N38" t="s">
         <v>43</v>
@@ -3687,13 +3741,13 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>18</v>
@@ -3772,7 +3826,7 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>20</v>
@@ -3781,10 +3835,10 @@
         <v>37</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s">
         <v>40</v>
@@ -3793,7 +3847,7 @@
         <v>41</v>
       </c>
       <c r="M41" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N41" t="s">
         <v>43</v>
@@ -3810,7 +3864,7 @@
         <v>88</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>20</v>
@@ -3819,10 +3873,10 @@
         <v>37</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N42" t="s">
         <v>43</v>
@@ -3833,10 +3887,10 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>17</v>
@@ -3916,7 +3970,7 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>20</v>
@@ -3925,10 +3979,10 @@
         <v>37</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N45" t="s">
         <v>43</v>
@@ -3939,10 +3993,10 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>17</v>
@@ -4022,7 +4076,7 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>20</v>
@@ -4031,19 +4085,19 @@
         <v>37</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K48" t="s">
         <v>85</v>
       </c>
       <c r="L48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N48" t="s">
         <v>43</v>
@@ -4059,7 +4113,7 @@
         <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>20</v>
@@ -4068,10 +4122,10 @@
         <v>37</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N49" t="s">
         <v>43</v>
@@ -4082,10 +4136,10 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>17</v>
@@ -4165,7 +4219,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>20</v>
@@ -4174,16 +4228,16 @@
         <v>37</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K52" t="s">
         <v>40</v>
       </c>
       <c r="L52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M52" t="s">
         <v>78</v>
@@ -4202,7 +4256,7 @@
         <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>20</v>
@@ -4211,10 +4265,10 @@
         <v>37</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N53" t="s">
         <v>43</v>
@@ -4225,10 +4279,10 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>17</v>
@@ -4323,13 +4377,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N56" t="s">
         <v>43</v>
@@ -4345,7 +4399,7 @@
         <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>20</v>
@@ -4354,10 +4408,10 @@
         <v>37</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N57" t="s">
         <v>43</v>
@@ -4368,10 +4422,10 @@
     </row>
     <row r="58" customFormat="1" ht="18" spans="1:15">
       <c r="A58" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>17</v>
@@ -4380,21 +4434,21 @@
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G58"/>
       <c r="H58" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I58"/>
       <c r="J58" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L58"/>
       <c r="M58"/>
@@ -4407,10 +4461,10 @@
     </row>
     <row r="59" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:15">
       <c r="A59" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>17</v>
@@ -4419,24 +4473,24 @@
         <v>18</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I59" s="12"/>
       <c r="J59" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M59" s="12" t="s">
         <v>32</v>
@@ -4456,7 +4510,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>20</v>
@@ -4465,11 +4519,11 @@
         <v>37</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
@@ -4483,10 +4537,10 @@
     </row>
     <row r="61" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
       <c r="A61" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>17</v>
@@ -4495,24 +4549,24 @@
         <v>18</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M61" s="12" t="s">
         <v>32</v>
@@ -4532,7 +4586,7 @@
         <v>35</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>20</v>
@@ -4541,20 +4595,20 @@
         <v>37</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K62" s="12" t="s">
         <v>40</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M62" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N62" s="12" t="s">
         <v>43</v>
@@ -4571,7 +4625,7 @@
         <v>47</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>20</v>
@@ -4580,11 +4634,11 @@
         <v>37</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -4598,36 +4652,36 @@
     </row>
     <row r="64" s="2" customFormat="1" spans="1:15">
       <c r="A64" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I64" s="12"/>
       <c r="J64" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M64" s="12" t="s">
         <v>32</v>
@@ -4647,7 +4701,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>20</v>
@@ -4656,11 +4710,11 @@
         <v>37</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
@@ -4674,10 +4728,10 @@
     </row>
     <row r="66" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A66" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>17</v>
@@ -4686,24 +4740,24 @@
         <v>18</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I66" s="12"/>
       <c r="J66" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M66" s="12" t="s">
         <v>32</v>
@@ -4723,7 +4777,7 @@
         <v>35</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>20</v>
@@ -4732,11 +4786,11 @@
         <v>37</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
@@ -4750,10 +4804,10 @@
     </row>
     <row r="68" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A68" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>17</v>
@@ -4762,24 +4816,24 @@
         <v>18</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I68" s="12"/>
       <c r="J68" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M68" s="12" t="s">
         <v>32</v>
@@ -4799,7 +4853,7 @@
         <v>35</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>20</v>
@@ -4808,11 +4862,11 @@
         <v>37</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
@@ -4826,10 +4880,10 @@
     </row>
     <row r="70" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A70" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>17</v>
@@ -4838,24 +4892,24 @@
         <v>18</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I70" s="12"/>
       <c r="J70" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M70" s="12" t="s">
         <v>32</v>
@@ -4875,7 +4929,7 @@
         <v>35</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>20</v>
@@ -4884,11 +4938,11 @@
         <v>37</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I71" s="12"/>
       <c r="J71" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
@@ -4902,10 +4956,10 @@
     </row>
     <row r="72" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A72" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>17</v>
@@ -4914,24 +4968,24 @@
         <v>18</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I72" s="12"/>
       <c r="J72" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M72" s="12" t="s">
         <v>32</v>
@@ -4951,7 +5005,7 @@
         <v>35</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>20</v>
@@ -4960,11 +5014,11 @@
         <v>37</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I73" s="12"/>
       <c r="J73" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K73" s="12"/>
       <c r="L73" s="12"/>
@@ -4978,10 +5032,10 @@
     </row>
     <row r="74" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A74" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>17</v>
@@ -4990,24 +5044,24 @@
         <v>18</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I74" s="12"/>
       <c r="J74" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M74" s="12" t="s">
         <v>32</v>
@@ -5027,7 +5081,7 @@
         <v>35</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>20</v>
@@ -5036,11 +5090,11 @@
         <v>37</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I75" s="12"/>
       <c r="J75" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
@@ -5054,10 +5108,10 @@
     </row>
     <row r="76" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A76" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>17</v>
@@ -5066,22 +5120,24 @@
         <v>18</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
+      <c r="H76" s="13" t="s">
+        <v>138</v>
+      </c>
       <c r="I76" s="12"/>
       <c r="J76" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M76" s="12" t="s">
         <v>32</v>
@@ -5101,7 +5157,7 @@
         <v>35</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>20</v>
@@ -5110,11 +5166,11 @@
         <v>37</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I77" s="12"/>
       <c r="J77" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
@@ -5128,36 +5184,36 @@
     </row>
     <row r="78" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:15">
       <c r="A78" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="D78" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I78" s="12"/>
       <c r="J78" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K78" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M78" s="12" t="s">
         <v>32</v>
@@ -5216,24 +5272,24 @@
         <v>18</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I80" s="12"/>
       <c r="J80" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K80" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M80" s="12" t="s">
         <v>32</v>
@@ -5292,24 +5348,24 @@
         <v>18</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I82" s="12"/>
       <c r="J82" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K82" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M82" s="12" t="s">
         <v>32</v>
@@ -5368,24 +5424,24 @@
         <v>18</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K84" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M84" s="12" t="s">
         <v>32</v>
@@ -5444,24 +5500,24 @@
         <v>18</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I86" s="12"/>
       <c r="J86" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K86" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M86" s="12" t="s">
         <v>32</v>
@@ -5520,24 +5576,24 @@
         <v>18</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G88" s="10"/>
       <c r="H88" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I88" s="12"/>
       <c r="J88" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M88" s="12" t="s">
         <v>32</v>
@@ -5596,24 +5652,24 @@
         <v>18</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K90" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M90" s="12" t="s">
         <v>32</v>
@@ -5672,24 +5728,24 @@
         <v>18</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G92" s="10"/>
       <c r="H92" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I92" s="12"/>
       <c r="J92" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K92" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M92" s="12" t="s">
         <v>32</v>
@@ -5748,24 +5804,24 @@
         <v>18</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I94" s="12"/>
       <c r="J94" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K94" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M94" s="12" t="s">
         <v>32</v>
@@ -5824,24 +5880,24 @@
         <v>18</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="10"/>
       <c r="H96" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I96" s="12"/>
       <c r="J96" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K96" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M96" s="12" t="s">
         <v>32</v>
@@ -5900,24 +5956,24 @@
         <v>18</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="10"/>
       <c r="H98" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I98" s="12"/>
       <c r="J98" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K98" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M98" s="12" t="s">
         <v>32</v>
@@ -5976,24 +6032,24 @@
         <v>18</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I100" s="12"/>
       <c r="J100" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K100" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M100" s="12" t="s">
         <v>32</v>
@@ -6052,24 +6108,24 @@
         <v>18</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I102" s="12"/>
       <c r="J102" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K102" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M102" s="12" t="s">
         <v>32</v>
@@ -6128,24 +6184,24 @@
         <v>18</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I104" s="12"/>
       <c r="J104" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K104" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M104" s="12" t="s">
         <v>32</v>
@@ -6165,7 +6221,7 @@
         <v>35</v>
       </c>
       <c r="E105" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F105" s="13" t="s">
         <v>20</v>
@@ -6174,11 +6230,11 @@
         <v>37</v>
       </c>
       <c r="H105" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I105" s="12"/>
       <c r="J105" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>40</v>
@@ -6243,24 +6299,24 @@
         <v>18</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G107" s="10"/>
       <c r="H107" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I107" s="12"/>
       <c r="J107" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K107" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M107" s="12" t="s">
         <v>32</v>
@@ -6280,7 +6336,7 @@
         <v>35</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>20</v>
@@ -6289,11 +6345,11 @@
         <v>37</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K108" s="12" t="s">
         <v>40</v>
@@ -6358,24 +6414,24 @@
         <v>18</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G110" s="10"/>
       <c r="H110" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I110" s="12"/>
       <c r="J110" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M110" s="12" t="s">
         <v>32</v>
@@ -6395,7 +6451,7 @@
         <v>35</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>20</v>
@@ -6404,11 +6460,11 @@
         <v>37</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I111" s="12"/>
       <c r="J111" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K111" s="12" t="s">
         <v>40</v>
@@ -6467,30 +6523,30 @@
         <v>262</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G113" s="10"/>
       <c r="H113" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I113" s="12"/>
       <c r="J113" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M113" s="12" t="s">
         <v>32</v>
@@ -6519,7 +6575,7 @@
         <v>37</v>
       </c>
       <c r="H114" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I114" s="12"/>
       <c r="J114" s="13" t="s">
@@ -6549,24 +6605,24 @@
         <v>18</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G115" s="10"/>
       <c r="H115" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M115" s="12" t="s">
         <v>32</v>
@@ -6586,7 +6642,7 @@
         <v>35</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>20</v>
@@ -6595,11 +6651,11 @@
         <v>37</v>
       </c>
       <c r="H116" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K116" s="12" t="s">
         <v>40</v>
@@ -6664,24 +6720,24 @@
         <v>18</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G118" s="10"/>
       <c r="H118" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K118" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M118" s="12" t="s">
         <v>32</v>
@@ -6701,7 +6757,7 @@
         <v>35</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>20</v>
@@ -6710,11 +6766,11 @@
         <v>37</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K119" s="12" t="s">
         <v>40</v>
@@ -6779,24 +6835,24 @@
         <v>18</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G121" s="10"/>
       <c r="H121" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I121" s="12"/>
       <c r="J121" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K121" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M121" s="12" t="s">
         <v>32</v>
@@ -6816,7 +6872,7 @@
         <v>35</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>20</v>
@@ -6825,11 +6881,11 @@
         <v>37</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I122" s="12"/>
       <c r="J122" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K122" s="12" t="s">
         <v>40</v>
@@ -6894,24 +6950,24 @@
         <v>18</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F124" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G124" s="10"/>
       <c r="H124" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I124" s="12"/>
       <c r="J124" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K124" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M124" s="12" t="s">
         <v>32</v>
@@ -6931,7 +6987,7 @@
         <v>35</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>20</v>
@@ -6940,11 +6996,11 @@
         <v>37</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I125" s="12"/>
       <c r="J125" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K125" s="12" t="s">
         <v>40</v>
@@ -7009,24 +7065,24 @@
         <v>18</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G127" s="10"/>
       <c r="H127" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I127" s="12"/>
       <c r="J127" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K127" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L127" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M127" s="12" t="s">
         <v>32</v>
@@ -7046,7 +7102,7 @@
         <v>35</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>20</v>
@@ -7055,11 +7111,11 @@
         <v>37</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I128" s="12"/>
       <c r="J128" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K128" s="12" t="s">
         <v>40</v>
@@ -7124,24 +7180,24 @@
         <v>18</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G130" s="10"/>
       <c r="H130" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I130" s="12"/>
       <c r="J130" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K130" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M130" s="12" t="s">
         <v>32</v>
@@ -7161,7 +7217,7 @@
         <v>35</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>20</v>
@@ -7170,11 +7226,11 @@
         <v>37</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I131" s="12"/>
       <c r="J131" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K131" s="12" t="s">
         <v>40</v>
@@ -7239,24 +7295,24 @@
         <v>18</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F133" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G133" s="10"/>
       <c r="H133" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I133" s="12"/>
       <c r="J133" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K133" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M133" s="12" t="s">
         <v>32</v>
@@ -7315,24 +7371,24 @@
         <v>18</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G135" s="10"/>
       <c r="H135" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I135" s="12"/>
       <c r="J135" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K135" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M135" s="12" t="s">
         <v>32</v>
@@ -7391,24 +7447,24 @@
         <v>18</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G137" s="10"/>
       <c r="H137" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I137" s="12"/>
       <c r="J137" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K137" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M137" s="12" t="s">
         <v>32</v>
@@ -7467,24 +7523,24 @@
         <v>18</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F139" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G139" s="10"/>
       <c r="H139" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I139" s="12"/>
       <c r="J139" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K139" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M139" s="12" t="s">
         <v>32</v>
@@ -7543,24 +7599,24 @@
         <v>18</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F141" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I141" s="12"/>
       <c r="J141" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M141" s="12" t="s">
         <v>32</v>
@@ -7619,24 +7675,24 @@
         <v>18</v>
       </c>
       <c r="E143" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F143" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G143" s="17"/>
       <c r="H143" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I143" s="18"/>
       <c r="J143" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K143" s="18" t="s">
         <v>30</v>
       </c>
       <c r="L143" s="18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M143" s="18" t="s">
         <v>32</v>
@@ -7695,24 +7751,24 @@
         <v>18</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F145" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G145" s="10"/>
       <c r="H145" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I145" s="12"/>
       <c r="J145" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K145" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M145" s="12" t="s">
         <v>32</v>
@@ -7771,24 +7827,24 @@
         <v>18</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F147" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G147" s="10"/>
       <c r="H147" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I147" s="12"/>
       <c r="J147" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K147" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M147" s="12" t="s">
         <v>32</v>
@@ -7808,7 +7864,7 @@
         <v>35</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F148" s="13" t="s">
         <v>20</v>
@@ -7817,11 +7873,11 @@
         <v>37</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I148" s="12"/>
       <c r="J148" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K148" s="12" t="s">
         <v>40</v>
@@ -7886,24 +7942,24 @@
         <v>18</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F150" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G150" s="10"/>
       <c r="H150" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I150" s="12"/>
       <c r="J150" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K150" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M150" s="12" t="s">
         <v>32</v>
@@ -7962,24 +8018,24 @@
         <v>18</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F152" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G152" s="10"/>
       <c r="H152" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I152" s="12"/>
       <c r="J152" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K152" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M152" s="12" t="s">
         <v>32</v>
@@ -8038,24 +8094,24 @@
         <v>18</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F154" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G154" s="10"/>
       <c r="H154" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I154" s="12"/>
       <c r="J154" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K154" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M154" s="12" t="s">
         <v>32</v>
@@ -8088,7 +8144,7 @@
       </c>
       <c r="I155" s="12"/>
       <c r="J155" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K155" s="12"/>
       <c r="L155" s="12"/>
@@ -8114,24 +8170,24 @@
         <v>18</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F156" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I156" s="12"/>
       <c r="J156" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K156" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M156" s="12" t="s">
         <v>32</v>
@@ -8151,7 +8207,7 @@
         <v>35</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F157" s="13" t="s">
         <v>20</v>
@@ -8160,7 +8216,7 @@
         <v>37</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I157" s="12"/>
       <c r="J157" s="14" t="s">
@@ -8181,7 +8237,7 @@
         <v>340</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C158" s="10" t="s">
         <v>17</v>
@@ -8190,24 +8246,24 @@
         <v>18</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F158" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I158" s="12"/>
       <c r="J158" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K158" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M158" s="12" t="s">
         <v>32</v>
@@ -8227,7 +8283,7 @@
         <v>35</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F159" s="13" t="s">
         <v>20</v>
@@ -8236,7 +8292,7 @@
         <v>37</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I159" s="12"/>
       <c r="J159" s="14" t="s">
@@ -8246,10 +8302,10 @@
         <v>40</v>
       </c>
       <c r="L159" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M159" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N159" s="12" t="s">
         <v>43</v>
@@ -8272,24 +8328,24 @@
         <v>18</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F160" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I160" s="12"/>
       <c r="J160" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K160" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M160" s="12" t="s">
         <v>32</v>
@@ -8348,24 +8404,24 @@
         <v>18</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F162" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I162" s="12"/>
       <c r="J162" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K162" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M162" s="12" t="s">
         <v>32</v>
@@ -8415,33 +8471,33 @@
         <v>351</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F164" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I164" s="12"/>
       <c r="J164" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K164" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M164" s="12" t="s">
         <v>32</v>
@@ -8461,7 +8517,7 @@
         <v>35</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="F165" s="13" t="s">
         <v>20</v>
@@ -8470,12 +8526,10 @@
         <v>37</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="I165" s="12"/>
-      <c r="J165" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="J165" s="14"/>
       <c r="K165" s="12"/>
       <c r="L165" s="12"/>
       <c r="M165" s="12"/>
@@ -8488,36 +8542,36 @@
     </row>
     <row r="166" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
       <c r="A166" s="11" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F166" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G166" s="10"/>
       <c r="H166" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I166" s="12"/>
       <c r="J166" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K166" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M166" s="12" t="s">
         <v>32</v>
@@ -8537,7 +8591,7 @@
         <v>35</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F167" s="13" t="s">
         <v>20</v>
@@ -8546,11 +8600,11 @@
         <v>37</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="I167" s="12"/>
       <c r="J167" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K167" s="12"/>
       <c r="L167" s="12"/>
@@ -8564,39 +8618,39 @@
     </row>
     <row r="168" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
       <c r="A168" s="11" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F168" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I168" s="12"/>
       <c r="J168" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K168" s="12" t="s">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="M168" s="12" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="N168" s="12" t="s">
         <v>26</v>
@@ -8613,7 +8667,7 @@
         <v>35</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="F169" s="13" t="s">
         <v>20</v>
@@ -8622,15 +8676,21 @@
         <v>37</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="I169" s="12"/>
       <c r="J169" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="12"/>
+        <v>366</v>
+      </c>
+      <c r="K169" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="L169" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="M169" s="12" t="s">
+        <v>369</v>
+      </c>
       <c r="N169" s="12" t="s">
         <v>43</v>
       </c>
@@ -8640,39 +8700,39 @@
     </row>
     <row r="170" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
       <c r="A170" s="11" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F170" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I170" s="12"/>
       <c r="J170" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K170" s="12" t="s">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="L170" s="12" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
       <c r="M170" s="12" t="s">
-        <v>32</v>
+        <v>374</v>
       </c>
       <c r="N170" s="12" t="s">
         <v>26</v>
@@ -8689,7 +8749,7 @@
         <v>35</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>335</v>
+        <v>198</v>
       </c>
       <c r="F171" s="13" t="s">
         <v>20</v>
@@ -8698,11 +8758,11 @@
         <v>37</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>336</v>
+        <v>199</v>
       </c>
       <c r="I171" s="12"/>
       <c r="J171" s="14" t="s">
-        <v>150</v>
+        <v>375</v>
       </c>
       <c r="K171" s="12"/>
       <c r="L171" s="12"/>
@@ -8716,39 +8776,39 @@
     </row>
     <row r="172" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
       <c r="A172" s="11" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F172" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G172" s="10"/>
       <c r="H172" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I172" s="12"/>
       <c r="J172" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K172" s="12" t="s">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="L172" s="12" t="s">
-        <v>142</v>
+        <v>373</v>
       </c>
       <c r="M172" s="12" t="s">
-        <v>32</v>
+        <v>374</v>
       </c>
       <c r="N172" s="12" t="s">
         <v>26</v>
@@ -8765,7 +8825,7 @@
         <v>35</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="F173" s="13" t="s">
         <v>20</v>
@@ -8774,11 +8834,11 @@
         <v>37</v>
       </c>
       <c r="H173" s="14" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="I173" s="12"/>
       <c r="J173" s="14" t="s">
-        <v>150</v>
+        <v>378</v>
       </c>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
@@ -8790,387 +8850,187 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
-      <c r="A174" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B174" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" s="10"/>
-      <c r="H174" s="13" t="s">
-        <v>137</v>
-      </c>
+    <row r="174" s="4" customFormat="1" spans="1:16">
+      <c r="A174" s="10"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="13"/>
       <c r="I174" s="12"/>
-      <c r="J174" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K174" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L174" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M174" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N174" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O174" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="175" s="2" customFormat="1" spans="1:15">
+      <c r="J174" s="13"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="13"/>
+      <c r="P174" s="21"/>
+    </row>
+    <row r="175" s="5" customFormat="1" spans="1:16">
       <c r="A175" s="10"/>
-      <c r="B175" s="10"/>
+      <c r="B175" s="13"/>
       <c r="C175" s="10"/>
-      <c r="D175" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G175" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H175" s="14" t="s">
-        <v>336</v>
-      </c>
+      <c r="D175" s="10"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="13"/>
       <c r="I175" s="12"/>
-      <c r="J175" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="J175" s="13"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
       <c r="M175" s="12"/>
-      <c r="N175" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O175" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="176" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
-      <c r="A176" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="B176" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C176" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D176" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E176" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F176" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="N175" s="12"/>
+      <c r="O175" s="13"/>
+      <c r="P175" s="22"/>
+    </row>
+    <row r="176" s="5" customFormat="1" spans="1:16">
+      <c r="A176" s="10"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="13"/>
       <c r="I176" s="12"/>
-      <c r="J176" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K176" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L176" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M176" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N176" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O176" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="177" s="2" customFormat="1" spans="1:15">
+      <c r="J176" s="13"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="13"/>
+      <c r="P176" s="22"/>
+    </row>
+    <row r="177" s="5" customFormat="1" spans="1:16">
       <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
+      <c r="B177" s="13"/>
       <c r="C177" s="10"/>
-      <c r="D177" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F177" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G177" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H177" s="14" t="s">
-        <v>336</v>
-      </c>
+      <c r="D177" s="10"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="13"/>
       <c r="I177" s="12"/>
-      <c r="J177" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="J177" s="13"/>
       <c r="K177" s="12"/>
       <c r="L177" s="12"/>
       <c r="M177" s="12"/>
-      <c r="N177" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O177" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
-      <c r="A178" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B178" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C178" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D178" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E178" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F178" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" s="10"/>
-      <c r="H178" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="N177" s="12"/>
+      <c r="O177" s="13"/>
+      <c r="P177" s="22"/>
+    </row>
+    <row r="178" s="5" customFormat="1" spans="1:16">
+      <c r="A178" s="10"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="13"/>
       <c r="I178" s="12"/>
-      <c r="J178" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K178" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L178" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M178" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N178" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O178" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="179" s="2" customFormat="1" spans="1:15">
+      <c r="J178" s="13"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="12"/>
+      <c r="O178" s="13"/>
+      <c r="P178" s="22"/>
+    </row>
+    <row r="179" s="5" customFormat="1" spans="1:16">
       <c r="A179" s="10"/>
-      <c r="B179" s="10"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="10"/>
-      <c r="D179" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F179" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G179" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H179" s="14" t="s">
-        <v>336</v>
-      </c>
+      <c r="D179" s="10"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="13"/>
       <c r="I179" s="12"/>
-      <c r="J179" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="J179" s="13"/>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
-      <c r="N179" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O179" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
-      <c r="A180" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B180" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C180" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D180" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F180" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" s="10"/>
-      <c r="H180" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="N179" s="12"/>
+      <c r="O179" s="13"/>
+      <c r="P179" s="22"/>
+    </row>
+    <row r="180" s="5" customFormat="1" spans="1:16">
+      <c r="A180" s="10"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="13"/>
       <c r="I180" s="12"/>
-      <c r="J180" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K180" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L180" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M180" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N180" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O180" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="181" s="2" customFormat="1" spans="1:15">
+      <c r="J180" s="13"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="13"/>
+      <c r="P180" s="22"/>
+    </row>
+    <row r="181" s="5" customFormat="1" spans="1:16">
       <c r="A181" s="10"/>
-      <c r="B181" s="10"/>
+      <c r="B181" s="13"/>
       <c r="C181" s="10"/>
-      <c r="D181" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E181" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F181" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G181" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H181" s="14" t="s">
-        <v>336</v>
-      </c>
+      <c r="D181" s="10"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="13"/>
       <c r="I181" s="12"/>
-      <c r="J181" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="J181" s="13"/>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
       <c r="M181" s="12"/>
-      <c r="N181" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O181" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" s="2" customFormat="1" ht="17.25" customHeight="1" spans="1:15">
-      <c r="A182" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B182" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C182" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F182" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" s="10"/>
-      <c r="H182" s="13" t="s">
-        <v>137</v>
-      </c>
+      <c r="N181" s="12"/>
+      <c r="O181" s="13"/>
+      <c r="P181" s="22"/>
+    </row>
+    <row r="182" s="5" customFormat="1" spans="1:16">
+      <c r="A182" s="10"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="13"/>
       <c r="I182" s="12"/>
-      <c r="J182" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K182" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L182" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="M182" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N182" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O182" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="183" s="2" customFormat="1" spans="1:15">
+      <c r="J182" s="13"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="12"/>
+      <c r="O182" s="13"/>
+      <c r="P182" s="22"/>
+    </row>
+    <row r="183" s="5" customFormat="1" spans="1:16">
       <c r="A183" s="10"/>
-      <c r="B183" s="10"/>
+      <c r="B183" s="13"/>
       <c r="C183" s="10"/>
-      <c r="D183" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G183" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H183" s="14" t="s">
-        <v>336</v>
-      </c>
+      <c r="D183" s="10"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="13"/>
       <c r="I183" s="12"/>
-      <c r="J183" s="14" t="s">
-        <v>150</v>
-      </c>
+      <c r="J183" s="13"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
       <c r="M183" s="12"/>
-      <c r="N183" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O183" s="13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" s="4" customFormat="1" spans="1:16">
+      <c r="N183" s="12"/>
+      <c r="O183" s="13"/>
+      <c r="P183" s="22"/>
+    </row>
+    <row r="184" s="5" customFormat="1" spans="1:16">
       <c r="A184" s="10"/>
       <c r="B184" s="13"/>
       <c r="C184" s="10"/>
@@ -9186,7 +9046,7 @@
       <c r="M184" s="12"/>
       <c r="N184" s="12"/>
       <c r="O184" s="13"/>
-      <c r="P184" s="21"/>
+      <c r="P184" s="22"/>
     </row>
     <row r="185" s="5" customFormat="1" spans="1:16">
       <c r="A185" s="10"/>
@@ -9729,7 +9589,7 @@
       <c r="P214" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="207">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
@@ -9799,11 +9659,6 @@
     <mergeCell ref="A168:A169"/>
     <mergeCell ref="A170:A171"/>
     <mergeCell ref="A172:A173"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="A182:A183"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -9873,11 +9728,6 @@
     <mergeCell ref="B168:B169"/>
     <mergeCell ref="B170:B171"/>
     <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B182:B183"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -9947,15 +9797,10 @@
     <mergeCell ref="C168:C169"/>
     <mergeCell ref="C170:C171"/>
     <mergeCell ref="C172:C173"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="C182:C183"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40 K41 K42 K43 K44 K45 K46 K47 K48 K49 K50 K51 K52 K53 K54 K55 K56 K57 K1:K3 K184:K1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N49 N53 N57 N1:N35 N36:N38 N39:N41 N43:N45 N46:N48 N50:N52 N54:N56 N58:N183 N184:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N42 N49 N53 N57 N1:N35 N36:N38 N39:N41 N43:N45 N46:N48 N50:N52 N54:N56 N58:N163 N164:N173 N174:N183 N184:N1048576">
       <formula1>"none,response_code,code_check,header_key,header_key_value,body_regexp,json_key_value,json_key"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K61 K64 K66 K68 K70 K72 K74 K76 K78 K80 K82 K84 K86 K88 K90 K92 K94 K96 K98 K100 K102 K113 K133 K135 K137 K139 K141 K143 K145 K150 K152 K154 K156 K158 K160 K162 K164 K166 K168 K170 K172 K174 K176 K178 K180 K182 K58:K59 K104:K108 K110:K111 K115:K116 K118:K119 K121:K122 K124:K125 K127:K128 K130:K131 K147:K148"/>
